--- a/erb_supporting_docs/Test_Plan.xlsx
+++ b/erb_supporting_docs/Test_Plan.xlsx
@@ -8,17 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/wilkinson_audrey_epa_gov/Documents/Documents/Projects/Metro-CERI/FY22/Dev_Docs/Test_Plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="343" documentId="11_F25DC773A252ABDACC104887395D7DD25BDE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80A19A8E-51FA-4DFC-91EC-27F3F38D2690}"/>
+  <xr:revisionPtr revIDLastSave="401" documentId="11_F25DC773A252ABDACC104887395D7DD25BDE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCD437C2-AEAA-471F-846C-7F2C3161CFEA}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1155" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1230" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meta" sheetId="1" r:id="rId1"/>
     <sheet name="Testing" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="91">
   <si>
     <t>Project Identification</t>
   </si>
@@ -222,11 +219,6 @@
   <si>
     <t>1. Launch the tool. (Test 1)
 2. Click the button labeled "Begin ERB Process".</t>
-  </si>
-  <si>
-    <t>1. Launch Project Selection (Test 2)
-2. Enter a name for the project in the project name field.
-3. Click the button labeled "Create".</t>
   </si>
   <si>
     <t>1. Create a new project. (Test 3)
@@ -360,21 +352,48 @@
 9. Select a different goal than the one current selected in the goal dropdown.</t>
   </si>
   <si>
-    <t>TBD. Working on updating functionality.</t>
-  </si>
-  <si>
     <t>Generation of chapter content and tree view content for the newly selected goal.</t>
+  </si>
+  <si>
+    <t>Previous button should generate the Plan activity content.
+Next button should generate content for the next activity in the tree view.</t>
+  </si>
+  <si>
+    <t>The data should be saved without error. Upon saving, closing and reopening the tool, the saved data should populate.</t>
+  </si>
+  <si>
+    <t>1. Launch Project Selection. (Test 2)
+2. Enter a name for the project in the project name field.
+3. Click the button labeled "Create".</t>
+  </si>
+  <si>
+    <t>1. Launch ERB. (Test 7)
+2. Make a change to the data by doing at least one of the following.
+    a. Change the status of an activity.
+        a.1 Select any activity except for Plan or Reflect.
+        a.2 Change the status of the activity by using either the "Started" button or the "Completed"button.
+    b. Change activity notes.
+        b.1 Select any chapter.
+        b.2 Select the Reflect panel.
+        b.3 Select a "Notes" hyperlink for an activity.
+        b.4 Change the notes.
+    c. Change activity ranking.
+        c.1 Select any chapter.
+        c.2 Select the Reflect panel.
+        c.3 Drag the rating slider to change the rating for an activity.
+    d. Change chapter notes.
+        d.1 Select any chapter.
+        d.2 Select the Reflect panel.
+        d.3 Select the "Chapter Notes" hyperlink.
+        d.4 Change the notes.
+3. Click the "Save" button.</t>
   </si>
   <si>
     <t>1. Launch ERB. (Test 7)
 2. Select any chapter in the treeview.
 3. Select the first activity after the "Plan" activity.
-4. Select the "Previous" button
-5. Select the "Next" button</t>
-  </si>
-  <si>
-    <t>Previous button should generate the Plan activity content.
-Next button should generate content for the next activity in the tree view.</t>
+4. Select the "Previous" button.
+5. Select the "Next" button.</t>
   </si>
 </sst>
 </file>
@@ -748,22 +767,76 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -773,60 +846,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1153,136 +1172,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Meta"/>
-      <sheetName val="Testing"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="5">
-          <cell r="G5"/>
-        </row>
-        <row r="6">
-          <cell r="G6"/>
-        </row>
-        <row r="7">
-          <cell r="G7"/>
-        </row>
-        <row r="8">
-          <cell r="G8"/>
-        </row>
-        <row r="9">
-          <cell r="G9"/>
-        </row>
-        <row r="10">
-          <cell r="G10"/>
-        </row>
-        <row r="11">
-          <cell r="G11"/>
-        </row>
-        <row r="12">
-          <cell r="G12"/>
-        </row>
-        <row r="13">
-          <cell r="G13"/>
-        </row>
-        <row r="14">
-          <cell r="G14"/>
-        </row>
-        <row r="15">
-          <cell r="G15"/>
-        </row>
-        <row r="16">
-          <cell r="G16"/>
-        </row>
-        <row r="17">
-          <cell r="G17"/>
-        </row>
-        <row r="18">
-          <cell r="G18"/>
-        </row>
-        <row r="19">
-          <cell r="G19"/>
-        </row>
-        <row r="20">
-          <cell r="G20"/>
-        </row>
-        <row r="21">
-          <cell r="G21"/>
-        </row>
-        <row r="22">
-          <cell r="G22"/>
-        </row>
-        <row r="23">
-          <cell r="G23"/>
-        </row>
-        <row r="24">
-          <cell r="G24"/>
-        </row>
-        <row r="25">
-          <cell r="G25"/>
-        </row>
-        <row r="26">
-          <cell r="G26"/>
-        </row>
-        <row r="27">
-          <cell r="G27"/>
-        </row>
-        <row r="28">
-          <cell r="G28"/>
-        </row>
-        <row r="29">
-          <cell r="G29"/>
-        </row>
-        <row r="30">
-          <cell r="G30"/>
-        </row>
-        <row r="31">
-          <cell r="G31"/>
-        </row>
-        <row r="32">
-          <cell r="G32"/>
-        </row>
-        <row r="33">
-          <cell r="G33"/>
-        </row>
-        <row r="34">
-          <cell r="G34"/>
-        </row>
-        <row r="35">
-          <cell r="G35"/>
-        </row>
-        <row r="36">
-          <cell r="G36"/>
-        </row>
-        <row r="37">
-          <cell r="G37"/>
-        </row>
-        <row r="38">
-          <cell r="G38"/>
-        </row>
-        <row r="39">
-          <cell r="G39"/>
-        </row>
-        <row r="40">
-          <cell r="G40"/>
-        </row>
-        <row r="41">
-          <cell r="G41"/>
-        </row>
-        <row r="42">
-          <cell r="G42"/>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1550,8 +1439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:E24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:E24"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1565,122 +1454,122 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="16" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="17"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="29" t="s">
+      <c r="C4" s="26"/>
+      <c r="D4" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="30"/>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="16" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="17"/>
+      <c r="E5" s="24"/>
     </row>
     <row r="6" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="31" t="s">
+      <c r="C6" s="26"/>
+      <c r="D6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="30"/>
+      <c r="E6" s="26"/>
     </row>
     <row r="7" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
     </row>
     <row r="8" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="34"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="31"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="35"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="37"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="34"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="35"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="37"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="34"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="35"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="37"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="34"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="35"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="37"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="34"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="35"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="37"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="35"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="37"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="35"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="37"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="34"/>
     </row>
     <row r="17" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="38"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="40"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="37"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
@@ -1690,59 +1579,67 @@
     </row>
     <row r="19" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="22"/>
     </row>
     <row r="21" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="16" t="s">
+      <c r="C21" s="24"/>
+      <c r="D21" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="17"/>
+      <c r="E21" s="24"/>
     </row>
     <row r="22" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="41" t="e">
-        <f>COUNTIF([1]Testing!G5:G42, "Pass")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="41" t="e">
-        <f>COUNTIF([1]Testing!G5:G42, "Caution")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E22" s="42"/>
+      <c r="B22" s="38">
+        <f>COUNTIF(Testing!G5:G25, "Pass")</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="39"/>
+      <c r="D22" s="38">
+        <f>COUNTIF(Testing!G5:G25, "Caution")</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="39"/>
     </row>
     <row r="23" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="16" t="s">
+      <c r="C23" s="24"/>
+      <c r="D23" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="17"/>
+      <c r="E23" s="24"/>
     </row>
     <row r="24" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="41" t="e">
-        <f>COUNTIF([1]Testing!G5:G42, "Fail")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="41" t="e">
+      <c r="B24" s="38">
+        <f>COUNTIF(Testing!G5:G25, "Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="39"/>
+      <c r="D24" s="38">
         <f>SUM(B22,D22,B24)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E24" s="42"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:C3"/>
@@ -1756,14 +1653,6 @@
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B9:E17"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1773,8 +1662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A344CB1D-926F-4453-BD5A-A415E4DBE62A}">
   <dimension ref="B1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1783,7 +1672,7 @@
     <col min="2" max="2" width="3.5546875" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.88671875" style="3" customWidth="1"/>
     <col min="4" max="4" width="74.5546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="57.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="67.88671875" style="3" customWidth="1"/>
     <col min="6" max="6" width="45.21875" style="3" customWidth="1"/>
     <col min="7" max="7" width="43.33203125" style="3" customWidth="1"/>
     <col min="8" max="8" width="8.88671875" style="3"/>
@@ -1796,14 +1685,14 @@
       <c r="C1" s="4"/>
     </row>
     <row r="2" spans="2:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="42"/>
       <c r="I2" s="5" t="s">
         <v>13</v>
       </c>
@@ -1835,19 +1724,19 @@
       <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="18" t="s">
         <v>24</v>
       </c>
       <c r="I4" s="7" t="s">
@@ -1858,17 +1747,17 @@
       <c r="B5" s="15">
         <v>1</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="26"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="17"/>
       <c r="I5" s="7" t="s">
         <v>25</v>
       </c>
@@ -1877,17 +1766,17 @@
       <c r="B6" s="15">
         <v>2</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="26"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="17"/>
       <c r="I6" s="7" t="s">
         <v>25</v>
       </c>
@@ -1896,17 +1785,17 @@
       <c r="B7" s="15">
         <v>3</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="27" t="s">
+      <c r="D7" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="26"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="17"/>
       <c r="I7" s="7" t="s">
         <v>25</v>
       </c>
@@ -1915,17 +1804,17 @@
       <c r="B8" s="15">
         <v>4</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="27" t="s">
+      <c r="D8" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="26"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="17"/>
       <c r="I8" s="7" t="s">
         <v>25</v>
       </c>
@@ -1934,17 +1823,17 @@
       <c r="B9" s="15">
         <v>5</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="27" t="s">
+      <c r="D9" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="26"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="17"/>
       <c r="I9" s="7" t="s">
         <v>25</v>
       </c>
@@ -1953,36 +1842,36 @@
       <c r="B10" s="15">
         <v>6</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="27" t="s">
+      <c r="D10" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="26"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="17"/>
       <c r="I10" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="178.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:9" ht="180" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="15">
         <v>7</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="27" t="s">
+      <c r="D11" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="26"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="17"/>
       <c r="I11" s="7" t="s">
         <v>25</v>
       </c>
@@ -1991,17 +1880,17 @@
       <c r="B12" s="15">
         <v>8</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="26"/>
+      <c r="D12" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="18"/>
+      <c r="G12" s="17"/>
       <c r="I12" s="7" t="s">
         <v>25</v>
       </c>
@@ -2010,17 +1899,17 @@
       <c r="B13" s="15">
         <v>9</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="26"/>
+      <c r="D13" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="17"/>
       <c r="I13" s="7" t="s">
         <v>25</v>
       </c>
@@ -2029,17 +1918,17 @@
       <c r="B14" s="15">
         <v>10</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="26"/>
+      <c r="D14" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="17"/>
       <c r="I14" s="7" t="s">
         <v>25</v>
       </c>
@@ -2048,17 +1937,17 @@
       <c r="B15" s="15">
         <v>11</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="26"/>
+      <c r="D15" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="17"/>
       <c r="I15" s="7" t="s">
         <v>25</v>
       </c>
@@ -2067,17 +1956,17 @@
       <c r="B16" s="15">
         <v>12</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="26"/>
+      <c r="D16" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="18"/>
+      <c r="G16" s="17"/>
       <c r="I16" s="7" t="s">
         <v>25</v>
       </c>
@@ -2086,17 +1975,17 @@
       <c r="B17" s="15">
         <v>13</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="26"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="17"/>
       <c r="I17" s="7" t="s">
         <v>25</v>
       </c>
@@ -2105,148 +1994,150 @@
       <c r="B18" s="15">
         <v>14</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="27" t="s">
+      <c r="D18" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="26"/>
+      <c r="E18" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="17"/>
       <c r="I18" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="67.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:9" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="15">
         <v>15</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="26"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="17"/>
       <c r="I19" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:9" ht="135" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="15">
         <v>16</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="E20" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="26"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="17"/>
       <c r="I20" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="105.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:9" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="15">
         <v>17</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="F21" s="27"/>
-      <c r="G21" s="26"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="17"/>
       <c r="I21" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="176.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:9" ht="149.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="15">
         <v>18</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="E22" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="F22" s="27"/>
-      <c r="G22" s="26"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="17"/>
       <c r="I22" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="155.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:9" ht="147.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="15">
         <v>19</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="E23" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="F23" s="27"/>
-      <c r="G23" s="26"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="17"/>
       <c r="I23" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="67.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:9" ht="339" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="15">
         <v>20</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="26"/>
+      <c r="D24" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="18"/>
+      <c r="G24" s="17"/>
       <c r="I24" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:9" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="15">
         <v>21</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="F25" s="27"/>
-      <c r="G25" s="26"/>
+      <c r="D25" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="18"/>
+      <c r="G25" s="17"/>
       <c r="I25" s="7" t="s">
         <v>25</v>
       </c>
